--- a/notebooks/my_sdr.xlsx
+++ b/notebooks/my_sdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="314">
   <si>
     <t>id</t>
   </si>
@@ -337,6 +337,9 @@
     <t>metrics/cart_views</t>
   </si>
   <si>
+    <t>metrics/67af6f76fe26252aee71e923._acxpevangelist.prediction.predictedOrders</t>
+  </si>
+  <si>
     <t>metrics/order_quantity</t>
   </si>
   <si>
@@ -709,6 +712,9 @@
     <t>Cart Views</t>
   </si>
   <si>
+    <t>Forecasted Orders (L123 Summary Data)</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -781,6 +787,9 @@
     <t>profile</t>
   </si>
   <si>
+    <t>summary</t>
+  </si>
+  <si>
     <t>cja</t>
   </si>
   <si>
@@ -923,6 +932,9 @@
   </si>
   <si>
     <t>commerce.productListViews.value</t>
+  </si>
+  <si>
+    <t>67af6f76fe26252aee71e923._acxpevangelist.prediction.predictedOrders</t>
   </si>
   <si>
     <t>productListItems.quantity</t>
@@ -1301,7 +1313,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1326,13 +1338,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1340,13 +1352,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1354,13 +1366,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1368,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1382,13 +1394,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1396,13 +1408,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1410,13 +1422,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D8" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1424,13 +1436,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D9" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1438,13 +1450,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D10" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1452,13 +1464,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D11" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1466,13 +1478,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D12" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1480,13 +1492,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1494,13 +1506,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D14" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1508,13 +1520,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D15" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1522,13 +1534,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C16" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D16" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1536,13 +1548,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D17" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1550,13 +1562,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D18" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1564,13 +1576,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D19" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1578,13 +1590,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C20" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D20" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1592,13 +1604,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C21" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D21" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1606,13 +1618,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C22" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D22" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1620,13 +1632,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D23" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1634,13 +1646,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C24" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D24" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1648,13 +1660,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C25" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D25" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1662,13 +1674,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C26" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D26" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1676,13 +1688,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C27" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D27" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1690,13 +1702,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D28" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1704,13 +1716,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D29" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1718,13 +1730,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C30" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D30" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1732,13 +1744,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C31" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D31" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1746,13 +1758,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C32" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D32" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1760,13 +1772,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C33" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D33" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1774,13 +1786,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C34" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D34" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1788,13 +1800,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C35" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D35" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1802,13 +1814,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C36" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D36" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1816,13 +1828,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C37" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D37" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1830,13 +1842,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D38" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1844,13 +1856,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C39" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D39" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1858,13 +1870,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C40" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D40" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1872,13 +1884,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C41" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D41" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1886,13 +1898,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C42" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D42" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1900,13 +1912,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C43" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D43" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1914,13 +1926,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C44" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D44" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1928,13 +1940,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C45" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D45" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1942,13 +1954,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C46" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D46" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1956,13 +1968,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C47" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D47" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1970,13 +1982,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C48" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D48" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1984,13 +1996,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C49" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D49" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1998,13 +2010,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C50" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D50" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2012,13 +2024,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C51" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D51" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2026,13 +2038,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C52" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D52" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2040,13 +2052,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C53" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D53" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2054,13 +2066,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C54" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D54" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2068,13 +2080,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C55" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D55" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2082,13 +2094,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C56" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D56" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2096,13 +2108,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C57" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D57" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2110,13 +2122,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C58" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D58" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2124,13 +2136,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C59" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D59" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2138,13 +2150,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C60" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D60" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2152,13 +2164,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C61" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D61" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2166,13 +2178,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C62" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D62" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2180,13 +2192,13 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C63" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D63" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2194,13 +2206,13 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C64" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D64" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2208,13 +2220,13 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C65" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D65" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2222,13 +2234,13 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C66" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D66" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2236,13 +2248,13 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C67" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D67" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2250,13 +2262,13 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C68" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D68" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2264,13 +2276,13 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C69" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D69" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2278,13 +2290,13 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C70" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D70" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2292,13 +2304,13 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C71" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D71" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2306,13 +2318,13 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C72" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D72" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2320,13 +2332,13 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C73" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D73" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2334,13 +2346,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C74" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D74" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2348,13 +2360,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C75" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D75" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2362,13 +2374,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C76" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D76" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2376,13 +2388,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C77" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D77" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2390,13 +2402,13 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C78" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D78" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2404,13 +2416,13 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C79" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D79" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2418,13 +2430,13 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C80" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D80" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2432,13 +2444,13 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C81" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D81" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2446,13 +2458,13 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C82" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D82" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2460,13 +2472,13 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C83" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D83" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2474,13 +2486,13 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C84" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D84" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2488,13 +2500,13 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C85" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D85" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2502,13 +2514,13 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C86" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D86" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2516,13 +2528,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C87" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D87" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2530,13 +2542,13 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C88" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D88" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2544,13 +2556,13 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C89" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D89" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2558,13 +2570,13 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C90" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D90" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2572,13 +2584,13 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C91" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D91" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2586,13 +2598,13 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C92" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D92" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2600,13 +2612,13 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C93" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D93" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2614,13 +2626,13 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C94" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D94" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2628,13 +2640,13 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C95" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D95" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2642,13 +2654,13 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C96" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D96" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2656,13 +2668,13 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C97" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D97" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2670,13 +2682,13 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C98" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D98" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2684,13 +2696,13 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C99" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D99" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2698,13 +2710,13 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C100" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D100" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2712,13 +2724,13 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C101" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D101" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2726,13 +2738,13 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C102" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D102" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2740,13 +2752,13 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C103" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D103" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2754,13 +2766,13 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C104" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D104" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2768,13 +2780,13 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C105" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D105" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2782,13 +2794,13 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C106" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D106" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2796,13 +2808,13 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C107" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D107" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2810,13 +2822,13 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C108" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D108" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2824,13 +2836,13 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C109" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D109" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2838,13 +2850,13 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C110" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D110" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2852,13 +2864,13 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C111" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D111" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2866,13 +2878,13 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C112" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D112" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2880,13 +2892,13 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C113" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D113" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2894,13 +2906,13 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C114" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D114" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2908,13 +2920,13 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C115" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D115" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2922,13 +2934,13 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="C116" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D116" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2936,13 +2948,13 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>242</v>
+        <v>162</v>
       </c>
       <c r="C117" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D117" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2950,13 +2962,13 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C118" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D118" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2964,13 +2976,13 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C119" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D119" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2978,13 +2990,13 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C120" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D120" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2992,13 +3004,13 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C121" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D121" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3006,13 +3018,13 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C122" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D122" t="s">
-        <v>255</v>
+        <v>304</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3020,13 +3032,13 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C123" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D123" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3034,13 +3046,13 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C124" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D124" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3048,13 +3060,27 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C125" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D125" t="s">
-        <v>281</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="s">
+        <v>252</v>
+      </c>
+      <c r="C126" t="s">
+        <v>253</v>
+      </c>
+      <c r="D126" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
